--- a/manual_assessments/result_tot_queries.xlsx
+++ b/manual_assessments/result_tot_queries.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Silvia\Documents\Università\Magistrale\Radboud\progetto retrival\InformationRetrievalProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Silvia\Documents\Università\Magistrale\Radboud\progetto retrival\InformationRetrievalProject\manual_assessments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{AD8ECD15-FB3C-4765-9EE4-6BC75F2E1B98}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A505B47A-2273-43E5-BB0F-1CBE0E3DC014}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{363BF94A-EF27-45C2-925F-E17E0FF07409}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="13">
   <si>
     <t>query_type</t>
   </si>
@@ -61,6 +61,9 @@
   </si>
   <si>
     <t>TREC</t>
+  </si>
+  <si>
+    <t>SemSearch</t>
   </si>
 </sst>
 </file>
@@ -412,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA490697-EA11-4F29-BC9C-766642D201E3}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -646,6 +649,57 @@
         <v>1.0991344755699999E-2</v>
       </c>
     </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14">
+        <v>0.355657348209449</v>
+      </c>
+      <c r="D14">
+        <v>6.7930576886599994E-2</v>
+      </c>
+      <c r="E14">
+        <v>0.104540365435</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15">
+        <v>0.21562379746270899</v>
+      </c>
+      <c r="D15">
+        <v>3.9530135895300002E-2</v>
+      </c>
+      <c r="E15">
+        <v>5.95547884232E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16">
+        <v>-0.14003355074673901</v>
+      </c>
+      <c r="D16">
+        <v>-2.8400440991299999E-2</v>
+      </c>
+      <c r="E16">
+        <v>-4.4985577011799997E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
